--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ctf1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H2">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I2">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J2">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>11.93419661361689</v>
+        <v>6.013267941014</v>
       </c>
       <c r="R2">
-        <v>107.407769522552</v>
+        <v>54.119411469126</v>
       </c>
       <c r="S2">
-        <v>0.0461036290904733</v>
+        <v>0.01916593653032549</v>
       </c>
       <c r="T2">
-        <v>0.04610362909047328</v>
+        <v>0.01916593653032548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H3">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I3">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J3">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
-        <v>17.26478792068267</v>
+        <v>6.905898501247999</v>
       </c>
       <c r="R3">
-        <v>155.383091286144</v>
+        <v>62.153086511232</v>
       </c>
       <c r="S3">
-        <v>0.06669651962266469</v>
+        <v>0.02201099529542499</v>
       </c>
       <c r="T3">
-        <v>0.06669651962266469</v>
+        <v>0.02201099529542498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H4">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I4">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J4">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>2.073511779876889</v>
+        <v>1.043582502378667</v>
       </c>
       <c r="R4">
-        <v>18.661606018892</v>
+        <v>9.392242521407999</v>
       </c>
       <c r="S4">
-        <v>0.008010293537907356</v>
+        <v>0.003326184065128324</v>
       </c>
       <c r="T4">
-        <v>0.008010293537907354</v>
+        <v>0.003326184065128322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H5">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I5">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J5">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>1.697697471800889</v>
+        <v>0.7391520711866667</v>
       </c>
       <c r="R5">
-        <v>15.279277246208</v>
+        <v>6.652368640680001</v>
       </c>
       <c r="S5">
-        <v>0.006558465314576479</v>
+        <v>0.002355880666151294</v>
       </c>
       <c r="T5">
-        <v>0.006558465314576477</v>
+        <v>0.002355880666151293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1381153333333333</v>
+        <v>0.055246</v>
       </c>
       <c r="H6">
-        <v>0.414346</v>
+        <v>0.165738</v>
       </c>
       <c r="I6">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="J6">
-        <v>0.1363987550016377</v>
+        <v>0.04876749798589627</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>2.337429326461556</v>
+        <v>0.5987878776193333</v>
       </c>
       <c r="R6">
-        <v>21.036863938154</v>
+        <v>5.389090898574</v>
       </c>
       <c r="S6">
-        <v>0.009029847436015924</v>
+        <v>0.001908501428866186</v>
       </c>
       <c r="T6">
-        <v>0.009029847436015922</v>
+        <v>0.001908501428866186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.878037</v>
       </c>
       <c r="I7">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J7">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>54.09214232947154</v>
+        <v>68.13850585947766</v>
       </c>
       <c r="R7">
-        <v>486.8292809652439</v>
+        <v>613.246552735299</v>
       </c>
       <c r="S7">
-        <v>0.2089662293498313</v>
+        <v>0.2171761330751119</v>
       </c>
       <c r="T7">
-        <v>0.2089662293498312</v>
+        <v>0.2171761330751118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.878037</v>
       </c>
       <c r="I8">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J8">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
         <v>78.25322438781866</v>
@@ -948,10 +948,10 @@
         <v>704.279019490368</v>
       </c>
       <c r="S8">
-        <v>0.3023041893069809</v>
+        <v>0.249414519130399</v>
       </c>
       <c r="T8">
-        <v>0.3023041893069809</v>
+        <v>0.2494145191303989</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>1.878037</v>
       </c>
       <c r="I9">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J9">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>9.398260976441556</v>
+        <v>11.82520937877689</v>
       </c>
       <c r="R9">
-        <v>84.58434878797399</v>
+        <v>106.426884408992</v>
       </c>
       <c r="S9">
-        <v>0.0363069213774259</v>
+        <v>0.03769019019851453</v>
       </c>
       <c r="T9">
-        <v>0.0363069213774259</v>
+        <v>0.03769019019851452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>1.878037</v>
       </c>
       <c r="I10">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J10">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>7.694870149219555</v>
+        <v>8.375598464535555</v>
       </c>
       <c r="R10">
-        <v>69.253831342976</v>
+        <v>75.38038618082001</v>
       </c>
       <c r="S10">
-        <v>0.02972646175899191</v>
+        <v>0.02669533274576004</v>
       </c>
       <c r="T10">
-        <v>0.02972646175899191</v>
+        <v>0.02669533274576003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>1.878037</v>
       </c>
       <c r="I11">
-        <v>0.6182318850598549</v>
+        <v>0.5526020925493169</v>
       </c>
       <c r="J11">
-        <v>0.618231885059855</v>
+        <v>0.5526020925493168</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>10.59447601757922</v>
+        <v>6.785081208416777</v>
       </c>
       <c r="R11">
-        <v>95.35028415821299</v>
+        <v>61.065730875751</v>
       </c>
       <c r="S11">
-        <v>0.04092808326662508</v>
+        <v>0.02162591739953159</v>
       </c>
       <c r="T11">
-        <v>0.04092808326662507</v>
+        <v>0.02162591739953158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H12">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I12">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J12">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N12">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O12">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P12">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q12">
-        <v>21.46856974191822</v>
+        <v>47.66024057890866</v>
       </c>
       <c r="R12">
-        <v>193.217127677264</v>
+        <v>428.942165210178</v>
       </c>
       <c r="S12">
-        <v>0.08293637255439718</v>
+        <v>0.1519062770719267</v>
       </c>
       <c r="T12">
-        <v>0.08293637255439718</v>
+        <v>0.1519062770719266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H13">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I13">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J13">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P13">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q13">
-        <v>31.05783451997866</v>
+        <v>54.73509366481066</v>
       </c>
       <c r="R13">
-        <v>279.520510679808</v>
+        <v>492.6158429832959</v>
       </c>
       <c r="S13">
-        <v>0.1199811708673061</v>
+        <v>0.1744557770336579</v>
       </c>
       <c r="T13">
-        <v>0.1199811708673061</v>
+        <v>0.1744557770336579</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H14">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I14">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J14">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N14">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O14">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P14">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q14">
-        <v>3.730065265238222</v>
+        <v>8.271275056291554</v>
       </c>
       <c r="R14">
-        <v>33.57058738714399</v>
+        <v>74.44147550662399</v>
       </c>
       <c r="S14">
-        <v>0.01440981333218392</v>
+        <v>0.02636282539025134</v>
       </c>
       <c r="T14">
-        <v>0.01440981333218392</v>
+        <v>0.02636282539025133</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2484573333333333</v>
+        <v>0.4378713333333333</v>
       </c>
       <c r="H15">
-        <v>0.7453719999999999</v>
+        <v>1.313614</v>
       </c>
       <c r="I15">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="J15">
-        <v>0.2453693599385072</v>
+        <v>0.3865237187563814</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N15">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O15">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P15">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q15">
-        <v>3.054008389006222</v>
+        <v>5.858406091782221</v>
       </c>
       <c r="R15">
-        <v>27.486075501056</v>
+        <v>52.72565482604</v>
       </c>
       <c r="S15">
-        <v>0.01179810208969436</v>
+        <v>0.01867234928251617</v>
       </c>
       <c r="T15">
-        <v>0.01179810208969436</v>
+        <v>0.01867234928251616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4378713333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.313614</v>
+      </c>
+      <c r="I16">
+        <v>0.3865237187563814</v>
+      </c>
+      <c r="J16">
+        <v>0.3865237187563814</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.83857433333333</v>
+      </c>
+      <c r="N16">
+        <v>32.515723</v>
+      </c>
+      <c r="O16">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="P16">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="Q16">
+        <v>4.74590099476911</v>
+      </c>
+      <c r="R16">
+        <v>42.713108952922</v>
+      </c>
+      <c r="S16">
+        <v>0.01512648997802934</v>
+      </c>
+      <c r="T16">
+        <v>0.01512648997802933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.013715</v>
+      </c>
+      <c r="H17">
+        <v>0.041145</v>
+      </c>
+      <c r="I17">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J17">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>108.845309</v>
+      </c>
+      <c r="N17">
+        <v>326.535927</v>
+      </c>
+      <c r="O17">
+        <v>0.3930063530400584</v>
+      </c>
+      <c r="P17">
+        <v>0.3930063530400583</v>
+      </c>
+      <c r="Q17">
+        <v>1.492813412935</v>
+      </c>
+      <c r="R17">
+        <v>13.435320716415</v>
+      </c>
+      <c r="S17">
+        <v>0.004758006362694386</v>
+      </c>
+      <c r="T17">
+        <v>0.004758006362694384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.013715</v>
+      </c>
+      <c r="H18">
+        <v>0.041145</v>
+      </c>
+      <c r="I18">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J18">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.002688</v>
+      </c>
+      <c r="N18">
+        <v>375.008064</v>
+      </c>
+      <c r="O18">
+        <v>0.4513455929560021</v>
+      </c>
+      <c r="P18">
+        <v>0.451345592956002</v>
+      </c>
+      <c r="Q18">
+        <v>1.71441186592</v>
+      </c>
+      <c r="R18">
+        <v>15.42970679328</v>
+      </c>
+      <c r="S18">
+        <v>0.005464301496520178</v>
+      </c>
+      <c r="T18">
+        <v>0.005464301496520176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.2484573333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.7453719999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.2453693599385072</v>
-      </c>
-      <c r="J16">
-        <v>0.2453693599385072</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>16.92374966666667</v>
-      </c>
-      <c r="N16">
-        <v>50.771249</v>
-      </c>
-      <c r="O16">
-        <v>0.06620183179756665</v>
-      </c>
-      <c r="P16">
-        <v>0.06620183179756664</v>
-      </c>
-      <c r="Q16">
-        <v>4.204829712180889</v>
-      </c>
-      <c r="R16">
-        <v>37.843467409628</v>
-      </c>
-      <c r="S16">
-        <v>0.01624390109492564</v>
-      </c>
-      <c r="T16">
-        <v>0.01624390109492564</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.013715</v>
+      </c>
+      <c r="H19">
+        <v>0.041145</v>
+      </c>
+      <c r="I19">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J19">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>18.88973866666667</v>
+      </c>
+      <c r="N19">
+        <v>56.669216</v>
+      </c>
+      <c r="O19">
+        <v>0.06820493571538706</v>
+      </c>
+      <c r="P19">
+        <v>0.06820493571538705</v>
+      </c>
+      <c r="Q19">
+        <v>0.2590727658133333</v>
+      </c>
+      <c r="R19">
+        <v>2.33165489232</v>
+      </c>
+      <c r="S19">
+        <v>0.0008257360614928675</v>
+      </c>
+      <c r="T19">
+        <v>0.0008257360614928672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.013715</v>
+      </c>
+      <c r="H20">
+        <v>0.041145</v>
+      </c>
+      <c r="I20">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J20">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.37928666666667</v>
+      </c>
+      <c r="N20">
+        <v>40.13786</v>
+      </c>
+      <c r="O20">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="P20">
+        <v>0.04830841776694433</v>
+      </c>
+      <c r="Q20">
+        <v>0.1834969166333333</v>
+      </c>
+      <c r="R20">
+        <v>1.6514722497</v>
+      </c>
+      <c r="S20">
+        <v>0.0005848550725168337</v>
+      </c>
+      <c r="T20">
+        <v>0.0005848550725168335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.013715</v>
+      </c>
+      <c r="H21">
+        <v>0.041145</v>
+      </c>
+      <c r="I21">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="J21">
+        <v>0.01210669070840545</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.83857433333333</v>
+      </c>
+      <c r="N21">
+        <v>32.515723</v>
+      </c>
+      <c r="O21">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="P21">
+        <v>0.03913470052160829</v>
+      </c>
+      <c r="Q21">
+        <v>0.1486510469816667</v>
+      </c>
+      <c r="R21">
+        <v>1.337859422835</v>
+      </c>
+      <c r="S21">
+        <v>0.000473791715181185</v>
+      </c>
+      <c r="T21">
+        <v>0.0004737917151811848</v>
       </c>
     </row>
   </sheetData>
